--- a/refs/heads/rc1/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/rc1/StructureDefinition-svc-immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="509">
   <si>
     <t>Path</t>
   </si>
@@ -858,7 +858,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient-updated)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient)
 </t>
   </si>
   <si>
@@ -1578,6 +1578,9 @@
   <si>
     <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
+  </si>
+  <si>
+    <t>http://fhir.org/guides/who/svc-rc1/ValueSet/who-svc-vaccinable-confitions</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1762,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.26171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -12039,7 +12042,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>244</v>
+        <v>508</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>

--- a/refs/heads/rc1/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/rc1/StructureDefinition-svc-immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
   <si>
     <t>Path</t>
   </si>
@@ -387,7 +387,7 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
   </si>
   <si>
-    <t>Identifier_URN</t>
+    <t>SVC_Identifier</t>
   </si>
   <si>
     <t>Immunization.identifier.id</t>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -3655,46 +3652,46 @@
         <v>41</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="S17" t="s" s="2">
+      <c r="T17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3712,10 +3709,10 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3752,13 +3749,13 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3772,43 +3769,43 @@
         <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3826,10 +3823,10 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3840,7 +3837,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3863,13 +3860,13 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3920,7 +3917,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3938,10 +3935,10 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3975,16 +3972,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4034,7 +4031,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4052,10 +4049,10 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -4066,7 +4063,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4092,13 +4089,13 @@
         <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4127,11 +4124,11 @@
         <v>134</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -4163,16 +4160,16 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4206,13 +4203,13 @@
         <v>140</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4238,14 +4235,14 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4277,13 +4274,13 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4320,10 +4317,10 @@
         <v>140</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4350,14 +4347,14 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>51</v>
@@ -4389,24 +4386,24 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4518,7 +4515,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4632,7 +4629,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4655,19 +4652,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4716,7 +4713,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4734,10 +4731,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4748,7 +4745,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4860,7 +4857,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4974,7 +4971,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5000,16 +4997,16 @@
         <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5019,46 +5016,46 @@
         <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5076,10 +5073,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5116,13 +5113,13 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5172,7 +5169,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5190,10 +5187,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5204,7 +5201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5230,14 +5227,14 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5266,25 +5263,25 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5302,10 +5299,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5316,7 +5313,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5342,14 +5339,14 @@
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5398,7 +5395,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5416,10 +5413,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5430,7 +5427,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5453,19 +5450,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5514,7 +5511,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5532,10 +5529,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5546,7 +5543,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5572,16 +5569,16 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5630,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5648,10 +5645,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5685,13 +5682,13 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5742,7 +5739,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -5757,16 +5754,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5774,7 +5771,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5797,13 +5794,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5854,7 +5851,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5869,16 +5866,16 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5886,7 +5883,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5909,16 +5906,16 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5968,7 +5965,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>51</v>
@@ -5983,24 +5980,24 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6023,13 +6020,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6080,7 +6077,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6101,10 +6098,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6112,7 +6109,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6135,16 +6132,16 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6194,7 +6191,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6212,13 +6209,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6226,7 +6223,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6252,13 +6249,13 @@
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6284,14 +6281,14 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6308,7 +6305,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6326,13 +6323,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6363,13 +6360,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6420,7 +6417,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6435,16 +6432,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6452,7 +6449,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6475,13 +6472,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6532,7 +6529,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6550,21 +6547,21 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6590,10 +6587,10 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6644,7 +6641,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6662,21 +6659,21 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6699,13 +6696,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6756,7 +6753,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6774,10 +6771,10 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6788,7 +6785,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6814,10 +6811,10 @@
         <v>140</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6844,14 +6841,14 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6868,7 +6865,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6886,21 +6883,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6926,10 +6923,10 @@
         <v>140</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6956,14 +6953,14 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6980,7 +6977,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6998,21 +6995,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7035,13 +7032,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7092,7 +7089,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7110,10 +7107,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7124,7 +7121,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7147,13 +7144,13 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7204,7 +7201,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7219,13 +7216,13 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7236,7 +7233,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7348,7 +7345,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7462,11 +7459,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7488,10 +7485,10 @@
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>100</v>
@@ -7546,7 +7543,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7578,7 +7575,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7604,10 +7601,10 @@
         <v>140</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7637,11 +7634,11 @@
         <v>145</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7658,7 +7655,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7673,13 +7670,13 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7690,7 +7687,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7713,16 +7710,16 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7772,7 +7769,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>51</v>
@@ -7787,16 +7784,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7827,13 +7824,13 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7884,7 +7881,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7899,13 +7896,13 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7916,7 +7913,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7942,10 +7939,10 @@
         <v>140</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7972,14 +7969,14 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7996,7 +7993,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8011,13 +8008,13 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8028,7 +8025,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8051,13 +8048,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8108,7 +8105,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8123,7 +8120,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
@@ -8140,7 +8137,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8163,23 +8160,23 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>41</v>
@@ -8224,7 +8221,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8242,7 +8239,7 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>94</v>
@@ -8256,7 +8253,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8282,10 +8279,10 @@
         <v>140</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8312,14 +8309,14 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8391,13 +8388,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8448,7 +8445,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8460,7 +8457,7 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8480,7 +8477,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,7 +8589,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8706,11 +8703,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8732,10 +8729,10 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>100</v>
@@ -8790,7 +8787,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8822,7 +8819,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8848,10 +8845,10 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8902,7 +8899,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8920,7 +8917,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>94</v>
@@ -8934,7 +8931,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8960,10 +8957,10 @@
         <v>65</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9014,7 +9011,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9046,7 +9043,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9069,13 +9066,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9126,7 +9123,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9144,7 +9141,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9158,7 +9155,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9181,13 +9178,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9238,7 +9235,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9256,7 +9253,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>94</v>
@@ -9270,7 +9267,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9296,10 +9293,10 @@
         <v>140</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9326,14 +9323,14 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9368,7 +9365,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9382,7 +9379,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9408,10 +9405,10 @@
         <v>140</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9438,14 +9435,14 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9494,7 +9491,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9517,16 +9514,16 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9576,7 +9573,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9594,10 +9591,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9608,7 +9605,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9720,7 +9717,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9834,11 +9831,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9860,10 +9857,10 @@
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>100</v>
@@ -9918,7 +9915,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9950,7 +9947,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9973,13 +9970,13 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10030,7 +10027,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10048,10 +10045,10 @@
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10062,7 +10059,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10085,13 +10082,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10142,7 +10139,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10160,10 +10157,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10174,7 +10171,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10197,13 +10194,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10254,7 +10251,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10272,10 +10269,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10286,7 +10283,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10309,13 +10306,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10354,7 +10351,7 @@
         <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
@@ -10364,7 +10361,7 @@
         <v>113</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10396,7 +10393,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10508,7 +10505,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10622,11 +10619,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10648,10 +10645,10 @@
         <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>100</v>
@@ -10706,7 +10703,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10738,7 +10735,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10764,10 +10761,10 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10818,7 +10815,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10850,7 +10847,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10873,13 +10870,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10930,7 +10927,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10962,7 +10959,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10988,10 +10985,10 @@
         <v>140</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11018,14 +11015,14 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
       </c>
@@ -11042,7 +11039,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11074,7 +11071,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11097,16 +11094,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11156,7 +11153,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11188,7 +11185,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11211,16 +11208,16 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11270,7 +11267,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11302,10 +11299,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>41</v>
@@ -11327,13 +11324,13 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11384,7 +11381,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11416,7 +11413,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11528,7 +11525,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11642,11 +11639,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11668,10 +11665,10 @@
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>100</v>
@@ -11726,7 +11723,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11758,7 +11755,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11784,10 +11781,10 @@
         <v>53</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11838,7 +11835,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11870,7 +11867,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11893,13 +11890,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11950,7 +11947,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11982,7 +11979,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12008,10 +12005,10 @@
         <v>140</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12042,7 +12039,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -12060,7 +12057,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12092,7 +12089,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12115,16 +12112,16 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12174,7 +12171,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>51</v>
@@ -12206,7 +12203,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12229,16 +12226,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12288,7 +12285,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
